--- a/ASB Data.xlsx
+++ b/ASB Data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" activeTab="1" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
   </bookViews>
   <sheets>
     <sheet name="LDA" sheetId="1" r:id="rId1"/>
+    <sheet name="ANN" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Training Subject</t>
   </si>
@@ -47,8 +48,41 @@
     <t>20% Testing</t>
   </si>
   <si>
+    <t>Sing Vals</t>
+  </si>
+  <si>
+    <t>Mean Acc</t>
+  </si>
+  <si>
+    <t>Time to Classify</t>
+  </si>
+  <si>
+    <t>Participant 1</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>fastWalk</t>
+  </si>
+  <si>
+    <t>slowWalk</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>standing</t>
+  </si>
+  <si>
+    <t>stairAscent</t>
+  </si>
+  <si>
+    <t>stairDescent</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">92.7 </t>
+      <t xml:space="preserve">88.6 </t>
     </r>
     <r>
       <rPr>
@@ -57,12 +91,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>± 0.4016</t>
+      <t>± 0.56</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">97.6 </t>
+      <t xml:space="preserve">95.5 </t>
     </r>
     <r>
       <rPr>
@@ -71,8 +105,68 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>± 0.2133</t>
+      <t>± 0.28</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">84.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.367</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">86.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">85.9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.35</t>
+    </r>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Train: 1 Test: 1</t>
+  </si>
+  <si>
+    <t>Train: 1 Test: 2</t>
+  </si>
+  <si>
+    <t>Train: 2 Test: 2</t>
+  </si>
+  <si>
+    <t>Train: 2 Test: 1</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -122,13 +216,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,6 +249,1923 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Classification Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LDA!$E$34:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LDA!$F$34:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-704A-4951-BE4C-9B2B31FD1A7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="510961656"/>
+        <c:axId val="510961984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="510961656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510961984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="510961984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510961656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Prediction Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LDA!$E$34:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LDA!$G$34:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.2496999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4534999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6896999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8829E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9039999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6885999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2803000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9388999999999995E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3788-4CB5-9B9B-77E931F87E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512492968"/>
+        <c:axId val="512492640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512492968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512492640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512492640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512492968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA1E178-015C-4A25-93FD-2D9672004559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597DB859-A68C-4286-92C5-BCACCD1981DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EDACF1-6682-4AB2-A0FD-FFC4F2C29D9C}">
-  <dimension ref="E9:J20"/>
+  <dimension ref="E9:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,10 +2476,11 @@
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,8 +2490,9 @@
       <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>1</v>
       </c>
@@ -477,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>2</v>
       </c>
@@ -488,49 +2511,441 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2.2496999999999998E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.4534999999999999E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2.6896999999999998E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.8829E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5.9039999999999997E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1">
+        <v>89.4</v>
+      </c>
+      <c r="G39" s="5">
+        <v>6.6885999999999998E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>70</v>
+      </c>
+      <c r="F40" s="1">
+        <v>90.1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>7.2803000000000004E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>80</v>
+      </c>
+      <c r="F41" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="G41" s="5">
+        <v>7.9388999999999995E-6</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E32:G32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1CB2D-1AAF-4F21-A838-686EEC42B733}">
+  <dimension ref="E4:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f>100-7.083333</f>
+        <v>92.916667000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f>100-6.63194</f>
+        <v>93.36806</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <f>100-6.77083</f>
+        <v>93.229169999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <f>100-6.21527</f>
+        <v>93.784729999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <f>100-7.95138</f>
+        <v>92.04862</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <f>100-5.90277</f>
+        <v>94.097229999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <f>100-6.45833</f>
+        <v>93.541669999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <f>100-7.2222</f>
+        <v>92.777799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1">
+        <f>100-6.18055</f>
+        <v>93.819450000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <f>100-6.00694</f>
+        <v>93.99306</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ASB Data.xlsx
+++ b/ASB Data.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" activeTab="1" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
   </bookViews>
   <sheets>
-    <sheet name="LDA" sheetId="1" r:id="rId1"/>
-    <sheet name="ANN" sheetId="3" r:id="rId2"/>
+    <sheet name="Aggregate" sheetId="6" r:id="rId1"/>
+    <sheet name="Random Forest" sheetId="5" r:id="rId2"/>
+    <sheet name="SVM" sheetId="4" r:id="rId3"/>
+    <sheet name="LDA" sheetId="1" r:id="rId4"/>
+    <sheet name="ANN" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>Training Subject</t>
   </si>
@@ -137,20 +140,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">85.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.35</t>
-    </r>
-  </si>
-  <si>
     <t>Trial</t>
   </si>
   <si>
@@ -167,6 +156,202 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">85.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.89</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">94.12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">80.33 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1.96</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">82.83 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.8184</t>
+    </r>
+  </si>
+  <si>
+    <t>Num Trees</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>Mean Accuracy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">93.21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>96.36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>93.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>93.81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.33</t>
+    </r>
+  </si>
+  <si>
+    <t>Participant 1 w SVD</t>
+  </si>
+  <si>
+    <t>With SVD - 40 Singular Values</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>SVD with 40 Singular Values</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">85.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">80.63 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 1.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>94.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.32</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -216,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +418,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -252,6 +471,711 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Aggregate!$F$6:$F$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.32</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1000000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.31</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.62</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Aggregate!$D$6:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Aggregate!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>94.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1605-4271-A210-BBEA187AD080}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="509027720"/>
+        <c:axId val="509032640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="509027720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509032640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="509032640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509027720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Random Forest'!$E$25:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Random Forest'!$F$25:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>91.361099999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.611000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9E5-4093-A67D-6D6DA68E8A16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="511628192"/>
+        <c:axId val="511626880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="511628192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511626880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="511626880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511628192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -355,7 +1279,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LDA!$E$34:$E$41</c:f>
+              <c:f>LDA!$E$28:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -388,7 +1312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LDA!$F$34:$F$41</c:f>
+              <c:f>LDA!$F$28:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -613,7 +1537,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -721,7 +1645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LDA!$E$34:$E$41</c:f>
+              <c:f>LDA!$E$28:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -754,7 +1678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LDA!$G$34:$G$41</c:f>
+              <c:f>LDA!$G$28:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1059,8 +1983,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1087,8 +2091,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1189,7 +2193,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1221,10 +2225,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1264,23 +2268,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1385,8 +2388,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1518,20 +2521,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1545,17 +2547,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2091,20 +3082,1134 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>599343</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294543</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77665</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB94EC4-7797-4AFA-B17E-A1EDC0EBFAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C98FC3-DDED-4BBB-8FC9-11029E48AA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2132,15 +4237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2464,11 +4569,744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EDACF1-6682-4AB2-A0FD-FFC4F2C29D9C}">
-  <dimension ref="E9:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D506C9-80C2-4672-B119-6E39F0D8A9E6}">
+  <dimension ref="C5:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="13" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1">
+        <v>94.17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80.63</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94775D0D-450F-4CB0-98B6-7835CCF1C2F2}">
+  <dimension ref="E2:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.71E-5</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="13">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8">
+        <v>91.361099999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="13">
+        <v>20</v>
+      </c>
+      <c r="F26" s="8">
+        <v>92.611000000000004</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="5:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="13">
+        <v>30</v>
+      </c>
+      <c r="F27" s="8">
+        <v>92.74</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E28" s="13">
+        <v>40</v>
+      </c>
+      <c r="F28" s="8">
+        <v>93.35</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E29" s="13">
+        <v>50</v>
+      </c>
+      <c r="F29" s="8">
+        <v>93.5</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E30" s="13">
+        <v>60</v>
+      </c>
+      <c r="F30" s="8">
+        <v>93.38</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="13">
+        <v>70</v>
+      </c>
+      <c r="F31" s="8">
+        <v>93.5</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="13">
+        <v>80</v>
+      </c>
+      <c r="F32" s="8">
+        <v>93.6</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E33" s="13">
+        <v>90</v>
+      </c>
+      <c r="F33" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="13">
+        <v>100</v>
+      </c>
+      <c r="F34" s="8">
+        <v>93.7</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+    </row>
+    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+    </row>
+    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E23:F23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060203B5-DCCC-4096-B09B-C493C4DA26F8}">
+  <dimension ref="E2:K35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EDACF1-6682-4AB2-A0FD-FFC4F2C29D9C}">
+  <dimension ref="E3:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,227 +5318,227 @@
     <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
+    <row r="3" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="1">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="1" t="s">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="4" t="s">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="2" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2.2496999999999998E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2.4534999999999999E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2.6896999999999998E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.8829E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="G32" s="5">
+        <v>5.9039999999999997E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>60</v>
+      </c>
+      <c r="F33" s="1">
+        <v>89.4</v>
+      </c>
+      <c r="G33" s="5">
+        <v>6.6885999999999998E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F34" s="1">
-        <v>82.6</v>
+        <v>90.1</v>
       </c>
       <c r="G34" s="5">
-        <v>2.2496999999999998E-6</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+        <v>7.2803000000000004E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1">
-        <v>83.7</v>
+        <v>90.4</v>
       </c>
       <c r="G35" s="5">
-        <v>2.4534999999999999E-6</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="1">
-        <v>30</v>
-      </c>
-      <c r="F36" s="1">
-        <v>85.5</v>
-      </c>
-      <c r="G36" s="5">
-        <v>2.6896999999999998E-6</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="1">
-        <v>40</v>
-      </c>
-      <c r="F37" s="1">
-        <v>88.7</v>
-      </c>
-      <c r="G37" s="5">
-        <v>2.8829E-6</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E38" s="1">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1">
-        <v>89.3</v>
-      </c>
-      <c r="G38" s="5">
-        <v>5.9039999999999997E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E39" s="1">
-        <v>60</v>
-      </c>
-      <c r="F39" s="1">
-        <v>89.4</v>
-      </c>
-      <c r="G39" s="5">
-        <v>6.6885999999999998E-6</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="1">
-        <v>70</v>
-      </c>
-      <c r="F40" s="1">
-        <v>90.1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>7.2803000000000004E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="1">
-        <v>80</v>
-      </c>
-      <c r="F41" s="1">
-        <v>90.4</v>
-      </c>
-      <c r="G41" s="5">
         <v>7.9388999999999995E-6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -2708,167 +5546,386 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1CB2D-1AAF-4F21-A838-686EEC42B733}">
-  <dimension ref="E4:J47"/>
+  <dimension ref="E3:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="4" t="s">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>28</v>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f>100-7.083333</f>
+        <v>92.916667000000004</v>
+      </c>
+      <c r="G5" s="1">
+        <f>100-2.39583</f>
+        <v>97.604169999999996</v>
+      </c>
+      <c r="H5" s="8">
+        <f>100-8.50694</f>
+        <v>91.49306</v>
+      </c>
+      <c r="I5" s="1">
+        <f>100-3.74657</f>
+        <v>96.253429999999994</v>
+      </c>
+      <c r="J5" s="1">
+        <f>100-6.33</f>
+        <v>93.67</v>
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <f>100-7.083333</f>
-        <v>92.916667000000004</v>
+        <f>100-6.63194</f>
+        <v>93.36806</v>
+      </c>
+      <c r="G6" s="1">
+        <f>100-3.29861</f>
+        <v>96.701390000000004</v>
+      </c>
+      <c r="H6" s="8">
+        <f>100-7.29166</f>
+        <v>92.708339999999993</v>
+      </c>
+      <c r="I6" s="1">
+        <f>100-9.61805</f>
+        <v>90.381950000000003</v>
+      </c>
+      <c r="J6" s="1">
+        <f>100-6.35416</f>
+        <v>93.645839999999993</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
-        <f>100-6.63194</f>
-        <v>93.36806</v>
+        <f>100-6.77083</f>
+        <v>93.229169999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <f>100-3.15972</f>
+        <v>96.840280000000007</v>
+      </c>
+      <c r="H7" s="8">
+        <f>100-8.78472</f>
+        <v>91.215280000000007</v>
+      </c>
+      <c r="I7" s="1">
+        <f>100-7.08333</f>
+        <v>92.916669999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <f>100-6.97916</f>
+        <v>93.020839999999993</v>
       </c>
     </row>
     <row r="8" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
+        <f>100-6.21527</f>
+        <v>93.784729999999996</v>
+      </c>
+      <c r="G8" s="1">
+        <f>100-4.61805</f>
+        <v>95.381950000000003</v>
+      </c>
+      <c r="H8" s="8">
+        <f>100-10.34722</f>
+        <v>89.652780000000007</v>
+      </c>
+      <c r="I8" s="1">
+        <f>100-6.25</f>
+        <v>93.75</v>
+      </c>
+      <c r="J8" s="1">
+        <f>100-7.39583</f>
+        <v>92.604169999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <f>100-7.95138</f>
+        <v>92.04862</v>
+      </c>
+      <c r="G9" s="1">
+        <f>100-2.70833</f>
+        <v>97.291669999999996</v>
+      </c>
+      <c r="H9" s="8">
+        <f>100-10.86805</f>
+        <v>89.131950000000003</v>
+      </c>
+      <c r="I9" s="1">
         <f>100-6.77083</f>
         <v>93.229169999999996</v>
       </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <f>100-6.21527</f>
-        <v>93.784729999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <f>100-7.82986</f>
+        <v>92.170140000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
-        <f>100-7.95138</f>
-        <v>92.04862</v>
-      </c>
-      <c r="H10" s="2"/>
+        <f>100-5.90277</f>
+        <v>94.097229999999996</v>
+      </c>
+      <c r="G10" s="1">
+        <f>100-3.09027</f>
+        <v>96.909729999999996</v>
+      </c>
+      <c r="H10" s="8">
+        <f>100-8.54166</f>
+        <v>91.458339999999993</v>
+      </c>
+      <c r="I10" s="1">
+        <f>100-8.95833</f>
+        <v>91.041669999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <f>100-8.19444</f>
+        <v>91.80556</v>
+      </c>
     </row>
     <row r="11" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
-        <f>100-5.90277</f>
-        <v>94.097229999999996</v>
+        <f>100-6.45833</f>
+        <v>93.541669999999996</v>
+      </c>
+      <c r="G11" s="1">
+        <f>100-3.26388</f>
+        <v>96.73612</v>
+      </c>
+      <c r="H11" s="8">
+        <f>100-8.50694</f>
+        <v>91.49306</v>
+      </c>
+      <c r="I11" s="1">
+        <f>100-8.99305</f>
+        <v>91.006950000000003</v>
+      </c>
+      <c r="J11" s="1">
+        <f>100-7.44791</f>
+        <v>92.552089999999993</v>
       </c>
     </row>
     <row r="12" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
-        <f>100-6.45833</f>
-        <v>93.541669999999996</v>
+        <f>100-7.2222</f>
+        <v>92.777799999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <f>100-3.3333</f>
+        <v>96.666700000000006</v>
+      </c>
+      <c r="H12" s="8">
+        <f>100-8.09027</f>
+        <v>91.909729999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <f>100-6.14583</f>
+        <v>93.854169999999996</v>
+      </c>
+      <c r="J12" s="1">
+        <f>100-6.51041</f>
+        <v>93.489589999999993</v>
       </c>
     </row>
     <row r="13" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
-        <f>100-7.2222</f>
-        <v>92.777799999999999</v>
+        <f>100-6.18055</f>
+        <v>93.819450000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <f>100-2.98611</f>
+        <v>97.013890000000004</v>
+      </c>
+      <c r="H13" s="8">
+        <f>100-8.26388</f>
+        <v>91.73612</v>
+      </c>
+      <c r="I13" s="1">
+        <f>100-8.8888</f>
+        <v>91.111199999999997</v>
+      </c>
+      <c r="J13" s="1">
+        <f>100-6.77083</f>
+        <v>93.229169999999996</v>
       </c>
     </row>
     <row r="14" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <f>100-6.18055</f>
-        <v>93.819450000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
         <f>100-6.00694</f>
         <v>93.99306</v>
       </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" s="2" t="s">
+      <c r="G14" s="1">
+        <f>100-3.81944</f>
+        <v>96.18056</v>
+      </c>
+      <c r="H14" s="8">
+        <f>100-10.72916</f>
+        <v>89.270839999999993</v>
+      </c>
+      <c r="I14" s="1">
+        <f>100-8.36805</f>
+        <v>91.631950000000003</v>
+      </c>
+      <c r="J14" s="1">
+        <f>100-7.69097</f>
+        <v>92.309030000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1">
+        <f>SUM(F5:F14)/10</f>
+        <v>93.357645699999992</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:J17" si="0">SUM(G5:G14)/10</f>
+        <v>96.732646000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>91.006950000000003</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>92.517715999999993</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>92.849643</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1">
+        <f>_xlfn.STDEV.P(F5:F14)</f>
+        <v>0.60341622610799017</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18:J18" si="1">_xlfn.STDEV.P(G5:G14)</f>
+        <v>0.57694197634077393</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1543252598639586</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7236883158343894</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62311214278089389</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="J34" s="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>2</v>
@@ -2876,75 +5933,67 @@
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="1">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E38" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>4</v>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/ASB Data.xlsx
+++ b/ASB Data.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudius\Documents\Research\EMG Machine Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\Research\CLiMB\Projects\EMG Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12012" activeTab="1" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aggregate" sheetId="6" r:id="rId1"/>
-    <sheet name="Random Forest" sheetId="5" r:id="rId2"/>
-    <sheet name="SVM" sheetId="4" r:id="rId3"/>
-    <sheet name="LDA" sheetId="1" r:id="rId4"/>
-    <sheet name="ANN" sheetId="3" r:id="rId5"/>
+    <sheet name="Random Forest" sheetId="5" r:id="rId1"/>
+    <sheet name="SVM" sheetId="4" r:id="rId2"/>
+    <sheet name="LDA" sheetId="1" r:id="rId3"/>
+    <sheet name="ANN" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>Training Subject</t>
   </si>
@@ -140,30 +139,6 @@
     </r>
   </si>
   <si>
-    <t>Trial</t>
-  </si>
-  <si>
-    <t>Train: 1 Test: 1</t>
-  </si>
-  <si>
-    <t>Train: 1 Test: 2</t>
-  </si>
-  <si>
-    <t>Train: 2 Test: 2</t>
-  </si>
-  <si>
-    <t>Train: 2 Test: 1</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>STDEV</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">85.8 </t>
     </r>
@@ -221,9 +196,6 @@
   </si>
   <si>
     <t>Num Trees</t>
-  </si>
-  <si>
-    <t>Acc</t>
   </si>
   <si>
     <t>Mean Accuracy</t>
@@ -297,21 +269,6 @@
     <t>SVD with 40 Singular Values</t>
   </si>
   <si>
-    <t>Classifier</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>LDA</t>
-  </si>
-  <si>
-    <t>ANN</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">85.6 </t>
     </r>
@@ -352,6 +309,103 @@
       </rPr>
       <t>± 0.32</t>
     </r>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Backward Selection with All Singular Values</t>
+  </si>
+  <si>
+    <t>No Normalization</t>
+  </si>
+  <si>
+    <t>Normalizing Features has no effect</t>
+  </si>
+  <si>
+    <t>Normalizing features makes it worse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">92.7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">96.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">90.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">90.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">92.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.01</t>
+    </r>
+  </si>
+  <si>
+    <t>Normalizing has negligible effect</t>
+  </si>
+  <si>
+    <t>Normalization has no effect</t>
   </si>
 </sst>
 </file>
@@ -401,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,9 +464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,9 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -452,6 +500,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,362 +543,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Accuracy Comparison</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030A0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Aggregate!$F$6:$F$9</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.32</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.1000000000000001</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.31</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.62</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Aggregate!$D$6:$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>RF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SVM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LDA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ANN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Aggregate!$E$6:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>94.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1605-4271-A210-BBEA187AD080}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="509027720"/>
-        <c:axId val="509032640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="509027720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="509032640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="509032640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="509027720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1175,6 +891,333 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SVM!$J$5:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>31.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD2D-4D40-9216-11335116A4D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442769480"/>
+        <c:axId val="442771120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442769480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442771120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442771120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442769480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1279,7 +1322,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LDA!$E$28:$E$35</c:f>
+              <c:f>LDA!$E$27:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1312,7 +1355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LDA!$F$28:$F$35</c:f>
+              <c:f>LDA!$F$27:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1645,7 +1688,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LDA!$E$28:$E$35</c:f>
+              <c:f>LDA!$E$27:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1678,7 +1721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LDA!$G$28:$G$35</c:f>
+              <c:f>LDA!$G$27:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1848,6 +1891,333 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="512492968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LDA!$J$5:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFD1-400B-892B-60766B0CF0D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="440619080"/>
+        <c:axId val="440622360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="440619080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440622360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="440622360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440619080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2063,8 +2433,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2091,8 +2501,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2193,7 +2603,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2225,10 +2635,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2268,22 +2678,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2388,8 +2799,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2521,19 +2932,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2547,6 +2959,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4114,48 +4537,523 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>599343</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>294543</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>77665</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB94EC4-7797-4AFA-B17E-A1EDC0EBFAED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4196,19 +5094,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F923828-DF80-43B9-B2B9-1569996DFEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4238,13 +5177,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4265,6 +5204,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCBD32E-03D2-4160-ABBE-1F070C3ADEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4569,532 +5544,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D506C9-80C2-4672-B119-6E39F0D8A9E6}">
-  <dimension ref="C5:M9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="13" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1">
-        <v>94.17</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1">
-        <v>80.63</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1">
-        <v>85.6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1">
-        <v>92.8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94775D0D-450F-4CB0-98B6-7835CCF1C2F2}">
   <dimension ref="E2:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="15" max="15" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="6" t="s">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="11">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="11">
+        <v>28</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="10">
         <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="11">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="11">
+        <v>30</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4">
         <v>4.71E-5</v>
       </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="11" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="11" t="s">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="11" t="s">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="11" t="s">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="11" t="s">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="13">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E25" s="12">
         <v>10</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>91.361099999999993</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="13">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E26" s="12">
         <v>20</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>92.611000000000004</v>
       </c>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="5:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="13">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="5:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="12">
         <v>30</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>92.74</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="13">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E28" s="12">
         <v>40</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>93.35</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="13">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E29" s="12">
         <v>50</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>93.5</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="13">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E30" s="12">
         <v>60</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>93.38</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="13">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E31" s="12">
         <v>70</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>93.5</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="13">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E32" s="12">
         <v>80</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>93.6</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="13">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E33" s="12">
         <v>90</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>93.4</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="13">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E34" s="12">
         <v>100</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>93.7</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-    </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-    </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-    </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-    </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-    </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-    </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-    </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-    </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-    </row>
-    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-    </row>
-    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-    </row>
-    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5107,894 +6006,990 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060203B5-DCCC-4096-B09B-C493C4DA26F8}">
+  <dimension ref="E1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>31.82</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>47.26</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <v>57.24</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1">
+        <v>64.44</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1">
+        <v>71.11</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1">
+        <v>74.84</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>77.569999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>79.64</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>83.82</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>84.91</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>85.97</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>86.64</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="5:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I21:J21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060203B5-DCCC-4096-B09B-C493C4DA26F8}">
-  <dimension ref="E2:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EDACF1-6682-4AB2-A0FD-FFC4F2C29D9C}">
+  <dimension ref="E1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="7" t="s">
+    <row r="1" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="5:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="1">
+      <c r="H4" s="2"/>
+      <c r="I4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="1">
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="14">
+        <v>12</v>
+      </c>
+      <c r="J5" s="14">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
         <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="1">
-        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I6" s="14">
+        <v>3</v>
+      </c>
+      <c r="J6" s="14">
+        <v>58.91</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="14">
+        <v>16</v>
+      </c>
+      <c r="J7" s="14">
+        <v>67.36</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="14">
+        <v>9</v>
+      </c>
+      <c r="J8" s="14">
+        <v>73.92</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="7" t="s">
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="14">
+        <v>13</v>
+      </c>
+      <c r="J9" s="14">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="14">
+        <v>14</v>
+      </c>
+      <c r="J10" s="14">
+        <v>82.43</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="14">
+        <v>15</v>
+      </c>
+      <c r="J11" s="14">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="14">
+        <v>7</v>
+      </c>
+      <c r="J12" s="14">
+        <v>86.28</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
+      <c r="I13" s="14">
+        <v>10</v>
+      </c>
+      <c r="J13" s="14">
+        <v>87.24</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
+      <c r="I14" s="14">
+        <v>11</v>
+      </c>
+      <c r="J14" s="14">
+        <v>87.97</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+      <c r="I15" s="14">
+        <v>4</v>
+      </c>
+      <c r="J15" s="14">
+        <v>88.54</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="14">
+        <v>2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>88.98</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
+      <c r="I17" s="14">
+        <v>6</v>
+      </c>
+      <c r="J17" s="14">
+        <v>89.38</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="5"/>
+      <c r="I18" s="14">
+        <v>8</v>
+      </c>
+      <c r="J18" s="14">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>90.02</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="I20" s="14">
+        <v>5</v>
+      </c>
+      <c r="J20" s="14">
+        <v>90.07</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2.2496999999999998E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.4534999999999999E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E29" s="1">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.6896999999999998E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>40</v>
+      </c>
+      <c r="F30" s="1">
+        <v>88.7</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2.8829E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5.9039999999999997E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E32" s="1">
+        <v>60</v>
+      </c>
+      <c r="F32" s="1">
+        <v>89.4</v>
+      </c>
+      <c r="G32" s="4">
+        <v>6.6885999999999998E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="1">
+        <v>70</v>
+      </c>
+      <c r="F33" s="1">
+        <v>90.1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>7.2803000000000004E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>80</v>
+      </c>
+      <c r="F34" s="1">
+        <v>90.4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>7.9388999999999995E-6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
+  <mergeCells count="3">
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EDACF1-6682-4AB2-A0FD-FFC4F2C29D9C}">
-  <dimension ref="E3:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1CB2D-1AAF-4F21-A838-686EEC42B733}">
+  <dimension ref="E1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="2" t="s">
+    <row r="1" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="1">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="5:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="1">
+      <c r="G4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E5" s="14">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="1">
+      <c r="G5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+    </row>
+    <row r="6" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="1">
+      <c r="G6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E7" s="14">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
+      <c r="G7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
+      <c r="H8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="5:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E15" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="M15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E16" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E17" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <v>82.6</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2.2496999999999998E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="1">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1">
-        <v>83.7</v>
-      </c>
-      <c r="G29" s="5">
-        <v>2.4534999999999999E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="1">
-        <v>30</v>
-      </c>
-      <c r="F30" s="1">
-        <v>85.5</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2.6896999999999998E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="1">
-        <v>40</v>
-      </c>
-      <c r="F31" s="1">
-        <v>88.7</v>
-      </c>
-      <c r="G31" s="5">
-        <v>2.8829E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="1">
-        <v>50</v>
-      </c>
-      <c r="F32" s="1">
-        <v>89.3</v>
-      </c>
-      <c r="G32" s="5">
-        <v>5.9039999999999997E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="1">
-        <v>60</v>
-      </c>
-      <c r="F33" s="1">
-        <v>89.4</v>
-      </c>
-      <c r="G33" s="5">
-        <v>6.6885999999999998E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="1">
-        <v>70</v>
-      </c>
-      <c r="F34" s="1">
-        <v>90.1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>7.2803000000000004E-6</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="1">
-        <v>80</v>
-      </c>
-      <c r="F35" s="1">
-        <v>90.4</v>
-      </c>
-      <c r="G35" s="5">
-        <v>7.9388999999999995E-6</v>
-      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+      <c r="M22" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E26:G26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1CB2D-1AAF-4F21-A838-686EEC42B733}">
-  <dimension ref="E3:J46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <f>100-7.083333</f>
-        <v>92.916667000000004</v>
-      </c>
-      <c r="G5" s="1">
-        <f>100-2.39583</f>
-        <v>97.604169999999996</v>
-      </c>
-      <c r="H5" s="8">
-        <f>100-8.50694</f>
-        <v>91.49306</v>
-      </c>
-      <c r="I5" s="1">
-        <f>100-3.74657</f>
-        <v>96.253429999999994</v>
-      </c>
-      <c r="J5" s="1">
-        <f>100-6.33</f>
-        <v>93.67</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <f>100-6.63194</f>
-        <v>93.36806</v>
-      </c>
-      <c r="G6" s="1">
-        <f>100-3.29861</f>
-        <v>96.701390000000004</v>
-      </c>
-      <c r="H6" s="8">
-        <f>100-7.29166</f>
-        <v>92.708339999999993</v>
-      </c>
-      <c r="I6" s="1">
-        <f>100-9.61805</f>
-        <v>90.381950000000003</v>
-      </c>
-      <c r="J6" s="1">
-        <f>100-6.35416</f>
-        <v>93.645839999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <f>100-6.77083</f>
-        <v>93.229169999999996</v>
-      </c>
-      <c r="G7" s="1">
-        <f>100-3.15972</f>
-        <v>96.840280000000007</v>
-      </c>
-      <c r="H7" s="8">
-        <f>100-8.78472</f>
-        <v>91.215280000000007</v>
-      </c>
-      <c r="I7" s="1">
-        <f>100-7.08333</f>
-        <v>92.916669999999996</v>
-      </c>
-      <c r="J7" s="1">
-        <f>100-6.97916</f>
-        <v>93.020839999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <f>100-6.21527</f>
-        <v>93.784729999999996</v>
-      </c>
-      <c r="G8" s="1">
-        <f>100-4.61805</f>
-        <v>95.381950000000003</v>
-      </c>
-      <c r="H8" s="8">
-        <f>100-10.34722</f>
-        <v>89.652780000000007</v>
-      </c>
-      <c r="I8" s="1">
-        <f>100-6.25</f>
-        <v>93.75</v>
-      </c>
-      <c r="J8" s="1">
-        <f>100-7.39583</f>
-        <v>92.604169999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <f>100-7.95138</f>
-        <v>92.04862</v>
-      </c>
-      <c r="G9" s="1">
-        <f>100-2.70833</f>
-        <v>97.291669999999996</v>
-      </c>
-      <c r="H9" s="8">
-        <f>100-10.86805</f>
-        <v>89.131950000000003</v>
-      </c>
-      <c r="I9" s="1">
-        <f>100-6.77083</f>
-        <v>93.229169999999996</v>
-      </c>
-      <c r="J9" s="1">
-        <f>100-7.82986</f>
-        <v>92.170140000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1">
-        <f>100-5.90277</f>
-        <v>94.097229999999996</v>
-      </c>
-      <c r="G10" s="1">
-        <f>100-3.09027</f>
-        <v>96.909729999999996</v>
-      </c>
-      <c r="H10" s="8">
-        <f>100-8.54166</f>
-        <v>91.458339999999993</v>
-      </c>
-      <c r="I10" s="1">
-        <f>100-8.95833</f>
-        <v>91.041669999999996</v>
-      </c>
-      <c r="J10" s="1">
-        <f>100-8.19444</f>
-        <v>91.80556</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1">
-        <f>100-6.45833</f>
-        <v>93.541669999999996</v>
-      </c>
-      <c r="G11" s="1">
-        <f>100-3.26388</f>
-        <v>96.73612</v>
-      </c>
-      <c r="H11" s="8">
-        <f>100-8.50694</f>
-        <v>91.49306</v>
-      </c>
-      <c r="I11" s="1">
-        <f>100-8.99305</f>
-        <v>91.006950000000003</v>
-      </c>
-      <c r="J11" s="1">
-        <f>100-7.44791</f>
-        <v>92.552089999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <f>100-7.2222</f>
-        <v>92.777799999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <f>100-3.3333</f>
-        <v>96.666700000000006</v>
-      </c>
-      <c r="H12" s="8">
-        <f>100-8.09027</f>
-        <v>91.909729999999996</v>
-      </c>
-      <c r="I12" s="1">
-        <f>100-6.14583</f>
-        <v>93.854169999999996</v>
-      </c>
-      <c r="J12" s="1">
-        <f>100-6.51041</f>
-        <v>93.489589999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <f>100-6.18055</f>
-        <v>93.819450000000003</v>
-      </c>
-      <c r="G13" s="1">
-        <f>100-2.98611</f>
-        <v>97.013890000000004</v>
-      </c>
-      <c r="H13" s="8">
-        <f>100-8.26388</f>
-        <v>91.73612</v>
-      </c>
-      <c r="I13" s="1">
-        <f>100-8.8888</f>
-        <v>91.111199999999997</v>
-      </c>
-      <c r="J13" s="1">
-        <f>100-6.77083</f>
-        <v>93.229169999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <f>100-6.00694</f>
-        <v>93.99306</v>
-      </c>
-      <c r="G14" s="1">
-        <f>100-3.81944</f>
-        <v>96.18056</v>
-      </c>
-      <c r="H14" s="8">
-        <f>100-10.72916</f>
-        <v>89.270839999999993</v>
-      </c>
-      <c r="I14" s="1">
-        <f>100-8.36805</f>
-        <v>91.631950000000003</v>
-      </c>
-      <c r="J14" s="1">
-        <f>100-7.69097</f>
-        <v>92.309030000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1">
-        <f>SUM(F5:F14)/10</f>
-        <v>93.357645699999992</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17:J17" si="0">SUM(G5:G14)/10</f>
-        <v>96.732646000000003</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>91.006950000000003</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="0"/>
-        <v>92.517715999999993</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="0"/>
-        <v>92.849643</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1">
-        <f>_xlfn.STDEV.P(F5:F14)</f>
-        <v>0.60341622610799017</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" ref="G18:J18" si="1">_xlfn.STDEV.P(G5:G14)</f>
-        <v>0.57694197634077393</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1543252598639586</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7236883158343894</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.62311214278089389</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E44" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E45" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F3:J3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ASB Data.xlsx
+++ b/ASB Data.xlsx
@@ -12,10 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12012" activeTab="1" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Random Forest" sheetId="5" r:id="rId1"/>
-    <sheet name="SVM" sheetId="4" r:id="rId2"/>
-    <sheet name="LDA" sheetId="1" r:id="rId3"/>
-    <sheet name="ANN" sheetId="3" r:id="rId4"/>
+    <sheet name="All" sheetId="6" r:id="rId1"/>
+    <sheet name="Sensor Map" sheetId="7" r:id="rId2"/>
+    <sheet name="Random Forest" sheetId="5" r:id="rId3"/>
+    <sheet name="SVM" sheetId="4" r:id="rId4"/>
+    <sheet name="LDA" sheetId="1" r:id="rId5"/>
+    <sheet name="ANN" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Training Subject</t>
   </si>
@@ -407,12 +409,114 @@
   <si>
     <t>Normalization has no effect</t>
   </si>
+  <si>
+    <t>Forward Selection with All Singular Values</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Tib Ant</t>
+  </si>
+  <si>
+    <t>Posterior Mid Shank</t>
+  </si>
+  <si>
+    <t>Vastus Lateralis</t>
+  </si>
+  <si>
+    <t>Soleus</t>
+  </si>
+  <si>
+    <t>Upper Lateral Ham</t>
+  </si>
+  <si>
+    <t>Add. Mag.</t>
+  </si>
+  <si>
+    <t>dist. Vast. Lat.</t>
+  </si>
+  <si>
+    <t>dist. Tib. Ant.</t>
+  </si>
+  <si>
+    <t>oblique</t>
+  </si>
+  <si>
+    <t>dist. Vast. Lat</t>
+  </si>
+  <si>
+    <t>Lat. Upper shank</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Medial Gastroc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastus Medialis </t>
+  </si>
+  <si>
+    <t>Rectus Femoris</t>
+  </si>
+  <si>
+    <t>Bicep. Femoris L.H.</t>
+  </si>
+  <si>
+    <t>Fibularis Longus</t>
+  </si>
+  <si>
+    <t>Distal Tibialis Anterior</t>
+  </si>
+  <si>
+    <t>Bottom of Foot</t>
+  </si>
+  <si>
+    <t>Superior Lateral Hamstring</t>
+  </si>
+  <si>
+    <t>External Abdominal Oblique</t>
+  </si>
+  <si>
+    <t>Tensor Fasciae Latae</t>
+  </si>
+  <si>
+    <t>Distal Vastus Lateralis</t>
+  </si>
+  <si>
+    <t>Posterior Mid Shank*</t>
+  </si>
+  <si>
+    <t>Tibialis Anterior*</t>
+  </si>
+  <si>
+    <t>Adductor Magnus**</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,16 +538,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -451,11 +600,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,12 +766,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -511,6 +781,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -522,12 +807,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,7 +895,1633 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Both Participants</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>All!$J$7:$J$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.2000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>All!$J$7:$J$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.2000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>All!$D$7:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.94169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B00C-4B02-8254-E9D798C8872A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Participant 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>All!$K$7:$K$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.8999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>All!$K$7:$K$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.7000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.8999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.5999999999999999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>All!$D$7:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B00C-4B02-8254-E9D798C8872A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Participant 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>All!$L$7:$L$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>All!$L$7:$L$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>2.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4999999999999997E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>All!$D$7:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ANN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.96360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B00C-4B02-8254-E9D798C8872A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="554777352"/>
+        <c:axId val="554777680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554777352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554777680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554777680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.75000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Classifier Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554777352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$D$24:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$24:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84109999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94650000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6427-4C6D-81DB-CD5264CEB941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$D$24:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$24:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64439999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74840000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77569999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7964</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84439999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86640000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6427-4C6D-81DB-CD5264CEB941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LDA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$D$24:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$G$24:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58909999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88540000000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89379999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90069999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6427-4C6D-81DB-CD5264CEB941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ANN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$D$24:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$H$24:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79909999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83319999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87620000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90689999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92430000000000012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94129999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94739999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94459999999999988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94010000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6427-4C6D-81DB-CD5264CEB941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="553205896"/>
+        <c:axId val="553206224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="553205896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Number of Sensors Used in Training</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553206224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553206224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Classifier Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553205896"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70841575921998301"/>
+          <c:y val="0.33127584830975321"/>
+          <c:w val="0.20939407792674974"/>
+          <c:h val="0.31207704000237524"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Tree #</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -891,7 +2856,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1218,7 +3183,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1580,7 +3545,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1946,7 +3911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2229,6 +4194,434 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ANN!$J$5:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.74</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-093E-4576-9605-8A4BF05E5B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ANN!$M$5:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-093E-4576-9605-8A4BF05E5B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="507280168"/>
+        <c:axId val="507281808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="507280168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507281808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507281808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507280168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2473,8 +4866,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2501,8 +5014,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2603,7 +5116,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2635,10 +5148,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2678,23 +5191,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2799,8 +5311,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2932,20 +5444,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2959,17 +5470,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2990,7 +5490,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3017,8 +5517,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3119,7 +5619,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3151,10 +5651,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3194,23 +5694,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3315,8 +5814,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3448,20 +5947,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3475,17 +5973,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5053,20 +7540,1632 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336786</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1452</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B75E07C-0B0C-4D6F-A056-2C518912DC33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>325119</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>3344</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C8C98F-A1A0-4C1D-9CA0-B90AC421E9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5094,20 +9193,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5135,7 +9234,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5211,16 +9310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5240,6 +9339,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DB8730-6FDD-496A-BE27-BD0881C418EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5544,11 +9684,632 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10261E67-292F-46B7-B437-2C91A5769C1C}">
+  <dimension ref="D5:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="29"/>
+    <col min="4" max="4" width="10.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="29"/>
+    <col min="10" max="12" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="J5" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>2</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31">
+        <v>1</v>
+      </c>
+      <c r="L6" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="27">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="K7" s="27">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="L7" s="27">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.80630000000000002</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K8" s="27">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="L8" s="27">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="27">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="K9" s="27">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="L9" s="27">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.92</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="27">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1E-4</v>
+      </c>
+      <c r="L10" s="27">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="27">
+        <v>1</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0.47600000000000003</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0.24600000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="27">
+        <v>2</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.47259999999999996</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.54549999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.57240000000000002</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.67359999999999998</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.70989999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="27">
+        <v>4</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0.73919999999999997</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0.79909999999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="27">
+        <v>5</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.9304</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0.79599999999999993</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0.83319999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="27">
+        <v>6</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0.74840000000000007</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0.87620000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="27">
+        <v>7</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.9335</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H31" s="32">
+        <v>0.88939999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="27">
+        <v>8</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.7964</v>
+      </c>
+      <c r="G32" s="32">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0.90689999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="27">
+        <v>9</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0.82</v>
+      </c>
+      <c r="G33" s="32">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="H33" s="32">
+        <v>0.91180000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="27">
+        <v>10</v>
+      </c>
+      <c r="E34" s="32">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="H34" s="32">
+        <v>0.92430000000000012</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="27">
+        <v>11</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0.88540000000000008</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0.93189999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="27">
+        <v>12</v>
+      </c>
+      <c r="E36" s="32">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0.84439999999999993</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0.94129999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="27">
+        <v>13</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0.89379999999999993</v>
+      </c>
+      <c r="H37" s="32">
+        <v>0.94200000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="27">
+        <v>14</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0.85400000000000009</v>
+      </c>
+      <c r="G38" s="32">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H38" s="32">
+        <v>0.94739999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="27">
+        <v>15</v>
+      </c>
+      <c r="E39" s="32">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0.9002</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0.94459999999999988</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="27">
+        <v>16</v>
+      </c>
+      <c r="E40" s="32">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.86640000000000006</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="H40" s="32">
+        <v>0.94010000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E1D416-0549-4E63-A5BF-B07087E90012}">
+  <dimension ref="C6:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.21875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="37">
+        <v>2</v>
+      </c>
+      <c r="F7" s="37">
+        <v>3</v>
+      </c>
+      <c r="G7" s="37">
+        <v>4</v>
+      </c>
+      <c r="H7" s="37">
+        <v>5</v>
+      </c>
+      <c r="I7" s="37">
+        <v>6</v>
+      </c>
+      <c r="J7" s="37">
+        <v>7</v>
+      </c>
+      <c r="K7" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" s="34" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="36">
+        <v>9</v>
+      </c>
+      <c r="E9" s="37">
+        <v>10</v>
+      </c>
+      <c r="F9" s="37">
+        <v>11</v>
+      </c>
+      <c r="G9" s="37">
+        <v>12</v>
+      </c>
+      <c r="H9" s="37">
+        <v>13</v>
+      </c>
+      <c r="I9" s="37">
+        <v>14</v>
+      </c>
+      <c r="J9" s="37">
+        <v>15</v>
+      </c>
+      <c r="K9" s="38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94775D0D-450F-4CB0-98B6-7835CCF1C2F2}">
   <dimension ref="E2:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5557,19 +10318,23 @@
     <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.109375" style="1"/>
     <col min="15" max="15" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="25"/>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5583,8 +10348,8 @@
         <v>3</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="5:11" x14ac:dyDescent="0.3">
@@ -5597,7 +10362,12 @@
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E5" s="10">
@@ -5609,7 +10379,15 @@
       <c r="G5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" s="10">
@@ -5621,7 +10399,15 @@
       <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="22">
+        <v>2</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" s="10">
@@ -5633,7 +10419,15 @@
       <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="22">
+        <v>11</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" s="10" t="s">
@@ -5645,6 +10439,15 @@
       <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="I8" s="22">
+        <v>3</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E9" s="10" t="s">
@@ -5653,7 +10456,23 @@
       <c r="F9" s="4">
         <v>4.71E-5</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="I9" s="22">
+        <v>12</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.9304</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="22">
+        <v>8</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.93189999999999995</v>
+      </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
@@ -5662,13 +10481,23 @@
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="13"/>
+      <c r="I11" s="22">
+        <v>15</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0.9335</v>
+      </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="I12" s="22">
+        <v>9</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0.93520000000000003</v>
+      </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E13" s="10" t="s">
@@ -5677,6 +10506,12 @@
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I13" s="22">
+        <v>14</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0.93059999999999998</v>
+      </c>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
@@ -5685,32 +10520,81 @@
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I14" s="22">
+        <v>7</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0.92759999999999998</v>
+      </c>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="I15" s="22">
+        <v>10</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0.92900000000000005</v>
+      </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E16" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="I16" s="22">
+        <v>5</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0.92479999999999996</v>
+      </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="I17" s="22">
+        <v>16</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.92079999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="22">
+        <v>6</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0.92079999999999995</v>
+      </c>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="N19" s="24" t="s">
-        <v>52</v>
-      </c>
+      <c r="I19" s="22">
+        <v>13</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.91820000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="I20" s="22">
+        <v>4</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0.94650000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="I21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="26"/>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.3">
@@ -5719,6 +10603,9 @@
       </c>
       <c r="F24" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.3">
@@ -5820,198 +10707,200 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060203B5-DCCC-4096-B09B-C493C4DA26F8}">
   <dimension ref="E1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:J21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6022,31 +10911,31 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="18"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="6" t="s">
@@ -6083,7 +10972,9 @@
       <c r="J5" s="1">
         <v>31.82</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" s="1">
@@ -6101,7 +10992,9 @@
       <c r="J6" s="1">
         <v>47.26</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
@@ -6119,7 +11012,9 @@
       <c r="J7" s="1">
         <v>57.24</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
@@ -6137,7 +11032,9 @@
       <c r="J8" s="1">
         <v>64.44</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
@@ -6155,7 +11052,9 @@
       <c r="J9" s="1">
         <v>71.11</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.3">
       <c r="I10" s="1">
@@ -6279,10 +11178,10 @@
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="23"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.3">
       <c r="L25" t="s">
@@ -6337,12 +11236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EDACF1-6682-4AB2-A0FD-FFC4F2C29D9C}">
   <dimension ref="E1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6353,30 +11252,31 @@
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="I2" s="22" t="s">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="21" t="s">
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="5:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6394,7 +11294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -6404,14 +11304,17 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>12</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E6" s="1">
         <v>2</v>
       </c>
@@ -6421,14 +11324,17 @@
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>3</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>58.91</v>
       </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -6438,14 +11344,17 @@
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>16</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>67.36</v>
       </c>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" s="1">
         <v>2</v>
       </c>
@@ -6455,14 +11364,17 @@
       <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>9</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>73.92</v>
       </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
@@ -6472,90 +11384,93 @@
       <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>13</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="14">
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="13">
         <v>14</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>82.43</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="I11" s="14">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="13">
         <v>15</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>85.1</v>
       </c>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>7</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>86.28</v>
       </c>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>10</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>87.24</v>
       </c>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>11</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>87.97</v>
       </c>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>4</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>88.54</v>
       </c>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>2</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>88.98</v>
       </c>
     </row>
@@ -6563,10 +11478,10 @@
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>6</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>89.38</v>
       </c>
     </row>
@@ -6574,35 +11489,35 @@
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>8</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>89.7</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>1</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>90.02</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>5</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>90.07</v>
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="L25" t="s">
         <v>44</v>
       </c>
@@ -6719,12 +11634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1CB2D-1AAF-4F21-A838-686EEC42B733}">
   <dimension ref="E1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6734,62 +11649,90 @@
     <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="I2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="L2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="M3" s="7"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="5:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>1</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="M5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="19">
+        <v>2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>24.6</v>
+      </c>
+      <c r="L5" s="19">
+        <v>12</v>
+      </c>
+      <c r="M5" s="19">
+        <v>27.47</v>
+      </c>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -6808,189 +11751,332 @@
       <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>2</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19">
+        <v>13</v>
+      </c>
+      <c r="J6" s="19">
+        <v>54.55</v>
+      </c>
+      <c r="L6" s="19">
+        <v>3</v>
+      </c>
+      <c r="M6" s="19">
+        <v>55.38</v>
+      </c>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="19">
+        <v>12</v>
+      </c>
+      <c r="J7" s="19">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="L7" s="19">
+        <v>7</v>
+      </c>
+      <c r="M7" s="19">
+        <v>72.08</v>
+      </c>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19">
+        <v>10</v>
+      </c>
+      <c r="J8" s="19">
+        <v>79.91</v>
+      </c>
+      <c r="L8" s="19">
+        <v>5</v>
+      </c>
+      <c r="M8" s="19">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="5:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19">
+        <v>9</v>
+      </c>
+      <c r="J9" s="19">
+        <v>83.32</v>
+      </c>
+      <c r="L9" s="19">
+        <v>14</v>
+      </c>
+      <c r="M9" s="19">
+        <v>83.11</v>
+      </c>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19">
+        <v>4</v>
+      </c>
+      <c r="J10" s="19">
+        <v>87.62</v>
+      </c>
+      <c r="L10" s="19">
+        <v>4</v>
+      </c>
+      <c r="M10" s="19">
+        <v>85.94</v>
+      </c>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19">
+        <v>7</v>
+      </c>
+      <c r="J11" s="19">
+        <v>88.94</v>
+      </c>
+      <c r="L11" s="19">
+        <v>9</v>
+      </c>
+      <c r="M11" s="19">
+        <v>88.91</v>
+      </c>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="19">
+        <v>8</v>
+      </c>
+      <c r="J12" s="19">
+        <v>90.69</v>
+      </c>
+      <c r="L12" s="19">
+        <v>10</v>
+      </c>
+      <c r="M12" s="19">
+        <v>89.29</v>
+      </c>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19">
+        <v>5</v>
+      </c>
+      <c r="J13" s="19">
+        <v>91.18</v>
+      </c>
+      <c r="L13" s="19">
+        <v>15</v>
+      </c>
+      <c r="M13" s="19">
+        <v>90.23</v>
+      </c>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="19">
+        <v>6</v>
+      </c>
+      <c r="J14" s="19">
+        <v>92.43</v>
+      </c>
+      <c r="L14" s="19">
+        <v>6</v>
+      </c>
+      <c r="M14" s="19">
+        <v>91.11</v>
+      </c>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="M15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="19">
+        <v>16</v>
+      </c>
+      <c r="J15" s="19">
+        <v>93.19</v>
+      </c>
+      <c r="L15" s="19">
+        <v>13</v>
+      </c>
+      <c r="M15" s="19">
+        <v>93.52</v>
+      </c>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>94.13</v>
+      </c>
+      <c r="L16" s="19">
+        <v>16</v>
+      </c>
+      <c r="M16" s="19">
+        <v>92.9</v>
+      </c>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="19">
+        <v>15</v>
+      </c>
+      <c r="J17" s="19">
+        <v>94.2</v>
+      </c>
+      <c r="L17" s="19">
+        <v>2</v>
+      </c>
+      <c r="M17" s="19">
+        <v>93.68</v>
+      </c>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="19">
+        <v>14</v>
+      </c>
+      <c r="J18" s="19">
+        <v>94.74</v>
+      </c>
+      <c r="L18" s="19">
+        <v>8</v>
+      </c>
+      <c r="M18" s="19">
+        <v>93.92</v>
+      </c>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="I19" s="19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="19">
+        <v>94.46</v>
+      </c>
+      <c r="L19" s="19">
+        <v>11</v>
+      </c>
+      <c r="M19" s="19">
+        <v>93.61</v>
+      </c>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="M20" s="14"/>
+      <c r="I20" s="19">
+        <v>11</v>
+      </c>
+      <c r="J20" s="19">
+        <v>94.01</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="M21" s="14"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
-      <c r="M22" s="14"/>
+      <c r="I22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="L2:M3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ASB Data.xlsx
+++ b/ASB Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\Research\CLiMB\Projects\EMG Machine Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudius\Documents\Research\EMG Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12012" activeTab="1" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" activeTab="1" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
   <si>
     <t>Training Subject</t>
   </si>
@@ -503,13 +503,10 @@
     <t>Distal Vastus Lateralis</t>
   </si>
   <si>
-    <t>Posterior Mid Shank*</t>
+    <t>Tibialis Anterior</t>
   </si>
   <si>
-    <t>Tibialis Anterior*</t>
-  </si>
-  <si>
-    <t>Adductor Magnus**</t>
+    <t>Adductor Magnus</t>
   </si>
 </sst>
 </file>
@@ -795,28 +792,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,6 +841,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2262,7 +2259,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -9691,462 +9688,462 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="29"/>
-    <col min="4" max="4" width="10.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="29"/>
-    <col min="10" max="12" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="3" width="8.85546875" style="24"/>
+    <col min="4" max="4" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="28" t="s">
+    <row r="5" spans="4:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="E5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="J5" s="30" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="J5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="31" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+    </row>
+    <row r="6" spans="4:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="D6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="25">
         <v>2</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="25">
         <v>1</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="27" t="s">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="26">
         <v>0.94169999999999998</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="26">
         <v>0.93210000000000004</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="26">
         <v>0.96360000000000001</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="23">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="23">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="23">
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="27" t="s">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="26">
         <v>0.80630000000000002</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="26">
         <v>0.85799999999999998</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="26">
         <v>0.94120000000000004</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="23">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="23">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="27" t="s">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="26">
         <v>0.85599999999999998</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="26">
         <v>0.88600000000000001</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="26">
         <v>0.95499999999999996</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="23">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="23">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="23">
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="27" t="s">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="26">
         <v>0.92</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="26">
         <v>0.92700000000000005</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="26">
         <v>0.96799999999999997</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="23">
         <v>1E-4</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="23">
         <v>1E-4</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="23">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="23" spans="4:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="31" t="s">
+    <row r="23" spans="4:8" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="27">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="23">
         <v>0</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="26">
         <v>0</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="26">
         <v>0</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="27">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="26">
         <v>0.84109999999999996</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="26">
         <v>0.31819999999999998</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="26">
         <v>0.47600000000000003</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="26">
         <v>0.24600000000000002</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="27">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="23">
         <v>2</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="26">
         <v>0.91549999999999998</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="26">
         <v>0.47259999999999996</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="26">
         <v>0.58909999999999996</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="26">
         <v>0.54549999999999998</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="27">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="23">
         <v>3</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="26">
         <v>0.92949999999999999</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="26">
         <v>0.57240000000000002</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="26">
         <v>0.67359999999999998</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="26">
         <v>0.70989999999999998</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="27">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="23">
         <v>4</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="26">
         <v>0.92810000000000004</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="26">
         <v>0.64439999999999997</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="26">
         <v>0.73919999999999997</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="26">
         <v>0.79909999999999992</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="27">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="23">
         <v>5</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="26">
         <v>0.9304</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="26">
         <v>0.71109999999999995</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="26">
         <v>0.79599999999999993</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="26">
         <v>0.83319999999999994</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="27">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="23">
         <v>6</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="26">
         <v>0.93189999999999995</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="26">
         <v>0.74840000000000007</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="26">
         <v>0.82430000000000003</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="26">
         <v>0.87620000000000009</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="27">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="23">
         <v>7</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="26">
         <v>0.9335</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="26">
         <v>0.77569999999999995</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="26">
         <v>0.85099999999999998</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="26">
         <v>0.88939999999999997</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="27">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="23">
         <v>8</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="26">
         <v>0.93520000000000003</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="26">
         <v>0.7964</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="26">
         <v>0.86280000000000001</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="26">
         <v>0.90689999999999993</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="27">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33" s="23">
         <v>9</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="26">
         <v>0.93059999999999998</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="26">
         <v>0.82</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="26">
         <v>0.87239999999999995</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="26">
         <v>0.91180000000000005</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="27">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D34" s="23">
         <v>10</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="26">
         <v>0.92759999999999998</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="26">
         <v>0.82799999999999996</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="26">
         <v>0.87970000000000004</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="26">
         <v>0.92430000000000012</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="27">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D35" s="23">
         <v>11</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="26">
         <v>0.92900000000000005</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="26">
         <v>0.83819999999999995</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="26">
         <v>0.88540000000000008</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="26">
         <v>0.93189999999999995</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="27">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36" s="23">
         <v>12</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="26">
         <v>0.92479999999999996</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="26">
         <v>0.84439999999999993</v>
       </c>
-      <c r="G36" s="32">
+      <c r="G36" s="26">
         <v>0.88980000000000004</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="26">
         <v>0.94129999999999991</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="27">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="23">
         <v>13</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="26">
         <v>0.92079999999999995</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="26">
         <v>0.84909999999999997</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="26">
         <v>0.89379999999999993</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="26">
         <v>0.94200000000000006</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="27">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D38" s="23">
         <v>14</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="26">
         <v>0.92079999999999995</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="26">
         <v>0.85400000000000009</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="26">
         <v>0.89700000000000002</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="26">
         <v>0.94739999999999991</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="27">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D39" s="23">
         <v>15</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="26">
         <v>0.91820000000000002</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="26">
         <v>0.85970000000000002</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="26">
         <v>0.9002</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="26">
         <v>0.94459999999999988</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="27">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D40" s="23">
         <v>16</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="26">
         <v>0.94650000000000001</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="26">
         <v>0.86640000000000006</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="26">
         <v>0.90069999999999995</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="26">
         <v>0.94010000000000005</v>
       </c>
     </row>
@@ -10162,140 +10159,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E1D416-0549-4E63-A5BF-B07087E90012}">
-  <dimension ref="C6:O10"/>
+  <dimension ref="C6:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O21" sqref="O21:W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.21875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" style="27"/>
+    <col min="3" max="3" width="10.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.85546875" style="23"/>
+    <col min="15" max="15" width="9.140625" style="23" bestFit="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="35" t="s">
+    <row r="6" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="31">
         <v>2</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="31">
         <v>3</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="31">
         <v>4</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="31">
         <v>5</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="31">
         <v>6</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="31">
         <v>7</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="32">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:11" s="34" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="35" t="s">
+    <row r="8" spans="3:11" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="30">
+        <v>9</v>
+      </c>
+      <c r="E9" s="31">
+        <v>10</v>
+      </c>
+      <c r="F9" s="31">
+        <v>11</v>
+      </c>
+      <c r="G9" s="31">
+        <v>12</v>
+      </c>
+      <c r="H9" s="31">
+        <v>13</v>
+      </c>
+      <c r="I9" s="31">
+        <v>14</v>
+      </c>
+      <c r="J9" s="31">
+        <v>15</v>
+      </c>
+      <c r="K9" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="H10" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="15:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="15:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>2</v>
+      </c>
+      <c r="R21" s="31">
+        <v>3</v>
+      </c>
+      <c r="S21" s="31">
+        <v>4</v>
+      </c>
+      <c r="T21" s="31">
+        <v>5</v>
+      </c>
+      <c r="U21" s="31">
+        <v>6</v>
+      </c>
+      <c r="V21" s="31">
+        <v>7</v>
+      </c>
+      <c r="W21" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="15:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="Q22" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="S22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="T22" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="U22" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="V22" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="W22" s="36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="35" t="s">
+    <row r="23" spans="15:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="36">
+      <c r="P23" s="30">
         <v>9</v>
       </c>
-      <c r="E9" s="37">
+      <c r="Q23" s="31">
         <v>10</v>
       </c>
-      <c r="F9" s="37">
+      <c r="R23" s="31">
         <v>11</v>
       </c>
-      <c r="G9" s="37">
+      <c r="S23" s="31">
         <v>12</v>
       </c>
-      <c r="H9" s="37">
+      <c r="T23" s="31">
         <v>13</v>
       </c>
-      <c r="I9" s="37">
+      <c r="U23" s="31">
         <v>14</v>
       </c>
-      <c r="J9" s="37">
+      <c r="V23" s="31">
         <v>15</v>
       </c>
-      <c r="K9" s="38">
+      <c r="W23" s="32">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="35" t="s">
+    <row r="24" spans="15:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="P24" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="Q24" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="R24" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="44" t="s">
+      <c r="S24" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="U24" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="V24" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="W24" s="40" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10312,32 +10434,32 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="1"/>
-    <col min="15" max="15" width="9.109375" style="1"/>
+    <col min="5" max="5" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E2" s="23" t="s">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="25" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
@@ -10348,11 +10470,11 @@
         <v>3</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E4" s="10">
         <v>1</v>
       </c>
@@ -10369,7 +10491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E5" s="10">
         <v>2</v>
       </c>
@@ -10389,7 +10511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E6" s="10">
         <v>1</v>
       </c>
@@ -10409,7 +10531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="10">
         <v>2</v>
       </c>
@@ -10429,7 +10551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="10" t="s">
         <v>1</v>
       </c>
@@ -10449,7 +10571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
@@ -10466,7 +10588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="I10" s="22">
         <v>8</v>
       </c>
@@ -10474,7 +10596,7 @@
         <v>0.93189999999999995</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
@@ -10488,7 +10610,7 @@
         <v>0.9335</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
@@ -10499,7 +10621,7 @@
         <v>0.93520000000000003</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="10" t="s">
         <v>13</v>
       </c>
@@ -10513,7 +10635,7 @@
         <v>0.93059999999999998</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
@@ -10527,7 +10649,7 @@
         <v>0.92759999999999998</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="10" t="s">
         <v>15</v>
       </c>
@@ -10538,7 +10660,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="10" t="s">
         <v>16</v>
       </c>
@@ -10549,7 +10671,7 @@
         <v>0.92479999999999996</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
@@ -10560,7 +10682,7 @@
         <v>0.92079999999999995</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I18" s="22">
         <v>6</v>
       </c>
@@ -10568,7 +10690,7 @@
         <v>0.92079999999999995</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I19" s="22">
         <v>13</v>
       </c>
@@ -10576,7 +10698,7 @@
         <v>0.91820000000000002</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I20" s="22">
         <v>4</v>
       </c>
@@ -10584,20 +10706,20 @@
         <v>0.94650000000000001</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="I21" s="26" t="s">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="I21" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="23" t="s">
+      <c r="J21" s="45"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E24" s="5" t="s">
         <v>26</v>
       </c>
@@ -10608,7 +10730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E25" s="12">
         <v>10</v>
       </c>
@@ -10616,7 +10738,7 @@
         <v>91.361099999999993</v>
       </c>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E26" s="12">
         <v>20</v>
       </c>
@@ -10625,7 +10747,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="5:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E27" s="12">
         <v>30</v>
       </c>
@@ -10640,7 +10762,7 @@
       <c r="L27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E28" s="12">
         <v>40</v>
       </c>
@@ -10649,7 +10771,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E29" s="12">
         <v>50</v>
       </c>
@@ -10658,7 +10780,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E30" s="12">
         <v>60</v>
       </c>
@@ -10667,7 +10789,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E31" s="12">
         <v>70</v>
       </c>
@@ -10676,7 +10798,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E32" s="12">
         <v>80</v>
       </c>
@@ -10685,7 +10807,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="12">
         <v>90</v>
       </c>
@@ -10694,7 +10816,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="12">
         <v>100</v>
       </c>
@@ -10703,10 +10825,10 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -10717,7 +10839,7 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -10728,7 +10850,7 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -10739,7 +10861,7 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -10750,7 +10872,7 @@
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -10761,7 +10883,7 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -10772,7 +10894,7 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -10783,7 +10905,7 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -10794,7 +10916,7 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -10805,7 +10927,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -10816,7 +10938,7 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -10827,7 +10949,7 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -10838,7 +10960,7 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -10849,7 +10971,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -10860,7 +10982,7 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -10871,7 +10993,7 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -10903,41 +11025,41 @@
       <selection activeCell="K5" sqref="K5:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="25" t="s">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E3" s="24" t="s">
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
@@ -10956,7 +11078,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -10976,7 +11098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>2</v>
       </c>
@@ -10996,7 +11118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -11016,7 +11138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>2</v>
       </c>
@@ -11036,7 +11158,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
@@ -11056,7 +11178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="I10" s="1">
         <v>13</v>
       </c>
@@ -11064,7 +11186,7 @@
         <v>74.84</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
@@ -11075,7 +11197,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
@@ -11089,7 +11211,7 @@
         <v>79.64</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -11100,7 +11222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
@@ -11114,7 +11236,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11128,7 +11250,7 @@
         <v>83.82</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11139,7 +11261,7 @@
         <v>84.44</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
@@ -11150,7 +11272,7 @@
         <v>84.91</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11161,7 +11283,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I19" s="1">
         <v>10</v>
       </c>
@@ -11169,7 +11291,7 @@
         <v>85.97</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I20" s="1">
         <v>5</v>
       </c>
@@ -11177,51 +11299,51 @@
         <v>86.64</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="I21" s="26" t="s">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="J21" s="45"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="5:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="4"/>
     </row>
   </sheetData>
@@ -11244,39 +11366,39 @@
       <selection activeCell="K5" sqref="K5:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="I2" s="25" t="s">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E3" s="24" t="s">
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
@@ -11294,7 +11416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -11314,7 +11436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>2</v>
       </c>
@@ -11334,7 +11456,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -11354,7 +11476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>2</v>
       </c>
@@ -11374,7 +11496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
@@ -11394,7 +11516,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="I10" s="13">
         <v>14</v>
       </c>
@@ -11402,7 +11524,7 @@
         <v>82.43</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="I11" s="13">
         <v>15</v>
       </c>
@@ -11410,7 +11532,7 @@
         <v>85.1</v>
       </c>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
@@ -11424,7 +11546,7 @@
         <v>86.28</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -11435,7 +11557,7 @@
         <v>87.24</v>
       </c>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
@@ -11449,7 +11571,7 @@
         <v>87.97</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11463,7 +11585,7 @@
         <v>88.54</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11474,7 +11596,7 @@
         <v>88.98</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
@@ -11485,7 +11607,7 @@
         <v>89.38</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11496,7 +11618,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I19" s="13">
         <v>1</v>
       </c>
@@ -11504,7 +11626,7 @@
         <v>90.02</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I20" s="13">
         <v>5</v>
       </c>
@@ -11512,17 +11634,17 @@
         <v>90.07</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E25" s="24" t="s">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
       <c r="L25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="5:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
@@ -11534,7 +11656,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <v>10</v>
       </c>
@@ -11545,7 +11667,7 @@
         <v>2.2496999999999998E-6</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <v>20</v>
       </c>
@@ -11556,7 +11678,7 @@
         <v>2.4534999999999999E-6</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
         <v>30</v>
       </c>
@@ -11567,7 +11689,7 @@
         <v>2.6896999999999998E-6</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="1">
         <v>40</v>
       </c>
@@ -11578,7 +11700,7 @@
         <v>2.8829E-6</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="1">
         <v>50</v>
       </c>
@@ -11589,7 +11711,7 @@
         <v>5.9039999999999997E-6</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="1">
         <v>60</v>
       </c>
@@ -11600,7 +11722,7 @@
         <v>6.6885999999999998E-6</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="1">
         <v>70</v>
       </c>
@@ -11611,7 +11733,7 @@
         <v>7.2803000000000004E-6</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
         <v>80</v>
       </c>
@@ -11642,33 +11764,33 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:29" x14ac:dyDescent="0.25">
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="5:29" x14ac:dyDescent="0.3">
-      <c r="I2" s="25" t="s">
+    <row r="2" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="I2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="J2" s="44"/>
+      <c r="L2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11679,13 +11801,13 @@
         <v>3</v>
       </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="5:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="13">
         <v>1</v>
       </c>
@@ -11710,7 +11832,7 @@
       </c>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E5" s="13">
         <v>2</v>
       </c>
@@ -11750,7 +11872,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
     </row>
-    <row r="6" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E6" s="13">
         <v>1</v>
       </c>
@@ -11775,7 +11897,7 @@
       </c>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E7" s="13">
         <v>2</v>
       </c>
@@ -11800,7 +11922,7 @@
       </c>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E8" s="13" t="s">
         <v>1</v>
       </c>
@@ -11825,7 +11947,7 @@
       </c>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="5:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -11844,7 +11966,7 @@
       </c>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -11863,7 +11985,7 @@
       </c>
       <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E11" s="15" t="s">
         <v>11</v>
       </c>
@@ -11886,7 +12008,7 @@
       </c>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
@@ -11907,7 +12029,7 @@
       </c>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
@@ -11930,7 +12052,7 @@
       </c>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E14" s="13" t="s">
         <v>14</v>
       </c>
@@ -11953,7 +12075,7 @@
       </c>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E15" s="13" t="s">
         <v>15</v>
       </c>
@@ -11974,7 +12096,7 @@
       </c>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="5:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
@@ -11995,7 +12117,7 @@
       </c>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="13" t="s">
         <v>17</v>
       </c>
@@ -12016,7 +12138,7 @@
       </c>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -12035,7 +12157,7 @@
       </c>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I19" s="19">
         <v>3</v>
       </c>
@@ -12050,7 +12172,7 @@
       </c>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I20" s="19">
         <v>11</v>
       </c>
@@ -12060,10 +12182,10 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="I22" s="16" t="s">
         <v>51</v>

--- a/ASB Data.xlsx
+++ b/ASB Data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudius\Documents\Research\EMG Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AC4900-277A-4082-B0E7-74C677ED1899}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" activeTab="1" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22200" windowHeight="12015" activeTab="3" xr2:uid="{C1355271-F146-43E7-82FE-FA49F815D41B}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
-    <sheet name="Sensor Map" sheetId="7" r:id="rId2"/>
-    <sheet name="Random Forest" sheetId="5" r:id="rId3"/>
-    <sheet name="SVM" sheetId="4" r:id="rId4"/>
-    <sheet name="LDA" sheetId="1" r:id="rId5"/>
-    <sheet name="ANN" sheetId="3" r:id="rId6"/>
+    <sheet name="ANN" sheetId="3" r:id="rId2"/>
+    <sheet name="Sensor Map" sheetId="7" r:id="rId3"/>
+    <sheet name="Random Forest" sheetId="5" r:id="rId4"/>
+    <sheet name="SVM" sheetId="4" r:id="rId5"/>
+    <sheet name="LDA" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
   <si>
     <t>Training Subject</t>
   </si>
@@ -334,83 +335,10 @@
     <t>Normalizing features makes it worse</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">92.7 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">96.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">90.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">90.3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">92.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>± 0.01</t>
-    </r>
-  </si>
-  <si>
     <t>Normalizing has negligible effect</t>
   </si>
   <si>
     <t>Normalization has no effect</t>
-  </si>
-  <si>
-    <t>Forward Selection with All Singular Values</t>
   </si>
   <si>
     <t>Classifier</t>
@@ -508,12 +436,77 @@
   <si>
     <t>Adductor Magnus</t>
   </si>
+  <si>
+    <t>Using 100 Neurons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">94.95 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.0077</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">95.01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.0067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">97.39 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 0.0068</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Forward Selection with All Singular Values (10 Neurons)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,33 +719,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -768,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -777,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -786,78 +779,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +934,7 @@
                     <c:v>3.0999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1E-4</c:v>
+                    <c:v>7.7000000000000002E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -956,7 +955,7 @@
                     <c:v>3.0999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1E-4</c:v>
+                    <c:v>7.7000000000000002E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1011,7 +1010,7 @@
                   <c:v>0.85599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92</c:v>
+                  <c:v>0.94950000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1060,7 @@
                     <c:v>5.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1E-4</c:v>
+                    <c:v>6.7000000000000002E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1082,7 +1081,7 @@
                     <c:v>5.5999999999999999E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1E-4</c:v>
+                    <c:v>6.7000000000000002E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1137,7 +1136,7 @@
                   <c:v>0.88600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92700000000000005</c:v>
+                  <c:v>0.95009999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,7 +1185,7 @@
                     <c:v>2.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1E-4</c:v>
+                    <c:v>8.6E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1207,7 +1206,7 @@
                     <c:v>2.8E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1E-4</c:v>
+                    <c:v>8.6E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1262,7 +1261,7 @@
                   <c:v>0.95499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96799999999999997</c:v>
+                  <c:v>0.97389999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,52 +2117,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24600000000000002</c:v>
+                  <c:v>0.27150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54549999999999998</c:v>
+                  <c:v>0.57030000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70989999999999998</c:v>
+                  <c:v>0.72850000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79909999999999992</c:v>
+                  <c:v>0.8286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83319999999999994</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87620000000000009</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88939999999999997</c:v>
+                  <c:v>0.92479999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90689999999999993</c:v>
+                  <c:v>0.94810000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91180000000000005</c:v>
+                  <c:v>0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92430000000000012</c:v>
+                  <c:v>0.95069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93189999999999995</c:v>
+                  <c:v>0.95540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94129999999999991</c:v>
+                  <c:v>0.95830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94200000000000006</c:v>
+                  <c:v>0.96079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94739999999999991</c:v>
+                  <c:v>0.96220000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94459999999999988</c:v>
+                  <c:v>0.96630000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94010000000000005</c:v>
+                  <c:v>0.96650000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,6 +2286,7 @@
         <c:axId val="553206224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2489,6 +2489,434 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ANN!$J$5:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>27.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-093E-4576-9605-8A4BF05E5B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ANN!$M$5:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>27.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-093E-4576-9605-8A4BF05E5B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="507280168"/>
+        <c:axId val="507281808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="507280168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507281808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507281808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507280168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2853,7 +3281,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3180,7 +3608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3542,7 +3970,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3908,7 +4336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4191,434 +4619,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ANN!$J$5:$J$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>24.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70.989999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>88.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90.69</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>91.18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>92.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>94.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>94.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94.74</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>94.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-093E-4576-9605-8A4BF05E5B54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ANN!$M$5:$M$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>27.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>83.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>85.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>88.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>89.29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>91.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>93.52</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>92.9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93.68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>93.92</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>93.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-093E-4576-9605-8A4BF05E5B54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="507280168"/>
-        <c:axId val="507281808"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="507280168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507281808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="507281808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="507280168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5990,7 +5990,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6017,8 +6017,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6119,7 +6119,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6151,10 +6151,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6194,23 +6194,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6315,8 +6314,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6448,20 +6447,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6475,17 +6473,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8570,7 +8557,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8597,8 +8584,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8699,7 +8686,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8731,10 +8718,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8774,22 +8761,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8894,8 +8882,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9027,19 +9015,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9053,6 +9042,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9153,6 +9153,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DB8730-6FDD-496A-BE27-BD0881C418EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>36</xdr:row>
@@ -9190,7 +9231,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9231,7 +9272,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9336,47 +9377,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DB8730-6FDD-496A-BE27-BD0881C418EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9684,8 +9684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10261E67-292F-46B7-B437-2C91A5769C1C}">
   <dimension ref="D5:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9700,20 +9700,20 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="J5" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="J5" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="4:12" ht="15" x14ac:dyDescent="0.2">
       <c r="D6" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>1</v>
@@ -9725,7 +9725,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>1</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D7" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E7" s="26">
         <v>0.94169999999999998</v>
@@ -9751,7 +9751,7 @@
         <v>0.96360000000000001</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J7" s="23">
         <v>3.2000000000000002E-3</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D8" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="26">
         <v>0.80630000000000002</v>
@@ -9777,7 +9777,7 @@
         <v>0.94120000000000004</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J8" s="23">
         <v>1.0999999999999999E-2</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D9" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E9" s="26">
         <v>0.85599999999999998</v>
@@ -9803,7 +9803,7 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J9" s="23">
         <v>3.0999999999999999E-3</v>
@@ -9817,45 +9817,45 @@
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D10" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E10" s="26">
-        <v>0.92</v>
+        <v>0.94950000000000001</v>
       </c>
       <c r="F10" s="26">
-        <v>0.92700000000000005</v>
+        <v>0.95009999999999994</v>
       </c>
       <c r="G10" s="26">
-        <v>0.96799999999999997</v>
+        <v>0.97389999999999999</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J10" s="23">
-        <v>1E-4</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="K10" s="23">
-        <v>1E-4</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="L10" s="23">
-        <v>1E-4</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="23" spans="4:8" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.2">
@@ -9889,7 +9889,7 @@
         <v>0.47600000000000003</v>
       </c>
       <c r="H25" s="26">
-        <v>0.24600000000000002</v>
+        <v>0.27150000000000002</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.2">
@@ -9906,7 +9906,7 @@
         <v>0.58909999999999996</v>
       </c>
       <c r="H26" s="26">
-        <v>0.54549999999999998</v>
+        <v>0.57030000000000003</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.2">
@@ -9923,7 +9923,7 @@
         <v>0.67359999999999998</v>
       </c>
       <c r="H27" s="26">
-        <v>0.70989999999999998</v>
+        <v>0.72850000000000004</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.2">
@@ -9940,7 +9940,7 @@
         <v>0.73919999999999997</v>
       </c>
       <c r="H28" s="26">
-        <v>0.79909999999999992</v>
+        <v>0.8286</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.2">
@@ -9957,7 +9957,7 @@
         <v>0.79599999999999993</v>
       </c>
       <c r="H29" s="26">
-        <v>0.83319999999999994</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
         <v>0.82430000000000003</v>
       </c>
       <c r="H30" s="26">
-        <v>0.87620000000000009</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.2">
@@ -9991,7 +9991,7 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="H31" s="26">
-        <v>0.88939999999999997</v>
+        <v>0.92479999999999996</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.2">
@@ -10008,7 +10008,7 @@
         <v>0.86280000000000001</v>
       </c>
       <c r="H32" s="26">
-        <v>0.90689999999999993</v>
+        <v>0.94810000000000005</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
@@ -10025,7 +10025,7 @@
         <v>0.87239999999999995</v>
       </c>
       <c r="H33" s="26">
-        <v>0.91180000000000005</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.2">
@@ -10042,7 +10042,7 @@
         <v>0.87970000000000004</v>
       </c>
       <c r="H34" s="26">
-        <v>0.92430000000000012</v>
+        <v>0.95069999999999999</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -10059,7 +10059,7 @@
         <v>0.88540000000000008</v>
       </c>
       <c r="H35" s="26">
-        <v>0.93189999999999995</v>
+        <v>0.95540000000000003</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.2">
@@ -10076,7 +10076,7 @@
         <v>0.88980000000000004</v>
       </c>
       <c r="H36" s="26">
-        <v>0.94129999999999991</v>
+        <v>0.95830000000000004</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -10093,7 +10093,7 @@
         <v>0.89379999999999993</v>
       </c>
       <c r="H37" s="26">
-        <v>0.94200000000000006</v>
+        <v>0.96079999999999999</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.2">
@@ -10110,7 +10110,7 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="H38" s="26">
-        <v>0.94739999999999991</v>
+        <v>0.96220000000000006</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
@@ -10127,7 +10127,7 @@
         <v>0.9002</v>
       </c>
       <c r="H39" s="26">
-        <v>0.94459999999999988</v>
+        <v>0.96630000000000005</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.2">
@@ -10144,7 +10144,7 @@
         <v>0.90069999999999995</v>
       </c>
       <c r="H40" s="26">
-        <v>0.94010000000000005</v>
+        <v>0.96650000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10158,10 +10158,482 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1CB2D-1AAF-4F21-A838-686EEC42B733}">
+  <dimension ref="E1:AC41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="I2" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="L2" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="46"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="5:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="19">
+        <v>12</v>
+      </c>
+      <c r="J5" s="19">
+        <v>27.15</v>
+      </c>
+      <c r="L5" s="19">
+        <v>12</v>
+      </c>
+      <c r="M5" s="19">
+        <v>27.47</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+    </row>
+    <row r="6" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19">
+        <v>13</v>
+      </c>
+      <c r="J6" s="19">
+        <v>57.03</v>
+      </c>
+      <c r="L6" s="19">
+        <v>3</v>
+      </c>
+      <c r="M6" s="19">
+        <v>55.38</v>
+      </c>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="19">
+        <v>8</v>
+      </c>
+      <c r="J7" s="19">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="L7" s="19">
+        <v>7</v>
+      </c>
+      <c r="M7" s="19">
+        <v>72.08</v>
+      </c>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>82.86</v>
+      </c>
+      <c r="L8" s="19">
+        <v>5</v>
+      </c>
+      <c r="M8" s="19">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="5:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19">
+        <v>7</v>
+      </c>
+      <c r="J9" s="19">
+        <v>87.2</v>
+      </c>
+      <c r="L9" s="19">
+        <v>14</v>
+      </c>
+      <c r="M9" s="19">
+        <v>83.11</v>
+      </c>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19">
+        <v>10</v>
+      </c>
+      <c r="J10" s="19">
+        <v>90.5</v>
+      </c>
+      <c r="L10" s="19">
+        <v>4</v>
+      </c>
+      <c r="M10" s="19">
+        <v>85.94</v>
+      </c>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19">
+        <v>3</v>
+      </c>
+      <c r="J11" s="19">
+        <v>92.48</v>
+      </c>
+      <c r="L11" s="19">
+        <v>9</v>
+      </c>
+      <c r="M11" s="19">
+        <v>88.91</v>
+      </c>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="19">
+        <v>15</v>
+      </c>
+      <c r="J12" s="19">
+        <v>94.81</v>
+      </c>
+      <c r="L12" s="19">
+        <v>10</v>
+      </c>
+      <c r="M12" s="19">
+        <v>89.29</v>
+      </c>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19">
+        <v>4</v>
+      </c>
+      <c r="J13" s="19">
+        <v>94.5</v>
+      </c>
+      <c r="L13" s="19">
+        <v>15</v>
+      </c>
+      <c r="M13" s="19">
+        <v>90.23</v>
+      </c>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="19">
+        <v>6</v>
+      </c>
+      <c r="J14" s="19">
+        <v>95.07</v>
+      </c>
+      <c r="L14" s="19">
+        <v>6</v>
+      </c>
+      <c r="M14" s="19">
+        <v>91.11</v>
+      </c>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="19">
+        <v>16</v>
+      </c>
+      <c r="J15" s="19">
+        <v>95.54</v>
+      </c>
+      <c r="L15" s="19">
+        <v>13</v>
+      </c>
+      <c r="M15" s="19">
+        <v>93.52</v>
+      </c>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="5:29" x14ac:dyDescent="0.25">
+      <c r="E16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="19">
+        <v>5</v>
+      </c>
+      <c r="J16" s="19">
+        <v>95.83</v>
+      </c>
+      <c r="L16" s="19">
+        <v>16</v>
+      </c>
+      <c r="M16" s="19">
+        <v>92.9</v>
+      </c>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="19">
+        <v>9</v>
+      </c>
+      <c r="J17" s="19">
+        <v>96.08</v>
+      </c>
+      <c r="L17" s="19">
+        <v>2</v>
+      </c>
+      <c r="M17" s="19">
+        <v>93.68</v>
+      </c>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>96.22</v>
+      </c>
+      <c r="L18" s="19">
+        <v>8</v>
+      </c>
+      <c r="M18" s="19">
+        <v>93.92</v>
+      </c>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="19">
+        <v>11</v>
+      </c>
+      <c r="J19" s="19">
+        <v>96.63</v>
+      </c>
+      <c r="L19" s="19">
+        <v>11</v>
+      </c>
+      <c r="M19" s="19">
+        <v>93.61</v>
+      </c>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="19">
+        <v>14</v>
+      </c>
+      <c r="J20" s="19">
+        <v>96.71</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+      <c r="I22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="42"/>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="41"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="41"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="41"/>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="41"/>
+      <c r="G40" s="41"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="E35:F35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E1D416-0549-4E63-A5BF-B07087E90012}">
   <dimension ref="C6:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21:W24"/>
     </sheetView>
   </sheetViews>
@@ -10219,31 +10691,31 @@
     </row>
     <row r="8" spans="3:11" s="28" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10277,31 +10749,31 @@
     </row>
     <row r="10" spans="3:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>78</v>
-      </c>
       <c r="E10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>85</v>
-      </c>
       <c r="H10" s="38" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="15:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10336,31 +10808,31 @@
     </row>
     <row r="22" spans="15:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O22" s="29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="W22" s="36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="15:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10394,31 +10866,31 @@
     </row>
     <row r="24" spans="15:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="37" t="s">
-        <v>78</v>
-      </c>
       <c r="Q24" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R24" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>85</v>
-      </c>
       <c r="T24" s="38" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U24" s="38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="V24" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="W24" s="40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -10426,12 +10898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94775D0D-450F-4CB0-98B6-7835CCF1C2F2}">
   <dimension ref="E2:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10448,15 +10920,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="I2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10470,8 +10942,8 @@
         <v>3</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="5:11" x14ac:dyDescent="0.25">
@@ -10508,7 +10980,7 @@
         <v>0.84109999999999996</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.25">
@@ -10528,7 +11000,7 @@
         <v>0.91549999999999998</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
@@ -10548,7 +11020,7 @@
         <v>0.92949999999999999</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.25">
@@ -10568,7 +11040,7 @@
         <v>0.92810000000000004</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
@@ -10585,7 +11057,7 @@
         <v>0.9304</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
@@ -10707,16 +11179,16 @@
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
@@ -10727,7 +11199,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
@@ -11017,7 +11489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060203B5-DCCC-4096-B09B-C493C4DA26F8}">
   <dimension ref="E1:L36"/>
   <sheetViews>
@@ -11044,19 +11516,19 @@
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11095,7 +11567,7 @@
         <v>31.82</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.25">
@@ -11115,7 +11587,7 @@
         <v>47.26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
@@ -11135,7 +11607,7 @@
         <v>57.24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.25">
@@ -11155,7 +11627,7 @@
         <v>64.44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
@@ -11175,7 +11647,7 @@
         <v>71.11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
@@ -11300,10 +11772,10 @@
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="L25" t="s">
@@ -11358,7 +11830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EDACF1-6682-4AB2-A0FD-FFC4F2C29D9C}">
   <dimension ref="E1:L34"/>
   <sheetViews>
@@ -11384,19 +11856,19 @@
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="44"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="5:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
@@ -11433,7 +11905,7 @@
         <v>47.6</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.25">
@@ -11453,7 +11925,7 @@
         <v>58.91</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
@@ -11473,7 +11945,7 @@
         <v>67.36</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.25">
@@ -11493,7 +11965,7 @@
         <v>73.92</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
@@ -11513,7 +11985,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
@@ -11635,11 +12107,11 @@
       </c>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
       <c r="L25" t="s">
         <v>44</v>
       </c>
@@ -11754,451 +12226,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB1CB2D-1AAF-4F21-A838-686EEC42B733}">
-  <dimension ref="E1:AC22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="I2" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="44"/>
-      <c r="L2" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="5:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>2</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="19">
-        <v>2</v>
-      </c>
-      <c r="J5" s="19">
-        <v>24.6</v>
-      </c>
-      <c r="L5" s="19">
-        <v>12</v>
-      </c>
-      <c r="M5" s="19">
-        <v>27.47</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-    </row>
-    <row r="6" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19">
-        <v>13</v>
-      </c>
-      <c r="J6" s="19">
-        <v>54.55</v>
-      </c>
-      <c r="L6" s="19">
-        <v>3</v>
-      </c>
-      <c r="M6" s="19">
-        <v>55.38</v>
-      </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="19">
-        <v>12</v>
-      </c>
-      <c r="J7" s="19">
-        <v>70.989999999999995</v>
-      </c>
-      <c r="L7" s="19">
-        <v>7</v>
-      </c>
-      <c r="M7" s="19">
-        <v>72.08</v>
-      </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="19">
-        <v>10</v>
-      </c>
-      <c r="J8" s="19">
-        <v>79.91</v>
-      </c>
-      <c r="L8" s="19">
-        <v>5</v>
-      </c>
-      <c r="M8" s="19">
-        <v>80.239999999999995</v>
-      </c>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="5:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19">
-        <v>9</v>
-      </c>
-      <c r="J9" s="19">
-        <v>83.32</v>
-      </c>
-      <c r="L9" s="19">
-        <v>14</v>
-      </c>
-      <c r="M9" s="19">
-        <v>83.11</v>
-      </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19">
-        <v>4</v>
-      </c>
-      <c r="J10" s="19">
-        <v>87.62</v>
-      </c>
-      <c r="L10" s="19">
-        <v>4</v>
-      </c>
-      <c r="M10" s="19">
-        <v>85.94</v>
-      </c>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19">
-        <v>7</v>
-      </c>
-      <c r="J11" s="19">
-        <v>88.94</v>
-      </c>
-      <c r="L11" s="19">
-        <v>9</v>
-      </c>
-      <c r="M11" s="19">
-        <v>88.91</v>
-      </c>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="19">
-        <v>8</v>
-      </c>
-      <c r="J12" s="19">
-        <v>90.69</v>
-      </c>
-      <c r="L12" s="19">
-        <v>10</v>
-      </c>
-      <c r="M12" s="19">
-        <v>89.29</v>
-      </c>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="19">
-        <v>5</v>
-      </c>
-      <c r="J13" s="19">
-        <v>91.18</v>
-      </c>
-      <c r="L13" s="19">
-        <v>15</v>
-      </c>
-      <c r="M13" s="19">
-        <v>90.23</v>
-      </c>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="19">
-        <v>6</v>
-      </c>
-      <c r="J14" s="19">
-        <v>92.43</v>
-      </c>
-      <c r="L14" s="19">
-        <v>6</v>
-      </c>
-      <c r="M14" s="19">
-        <v>91.11</v>
-      </c>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="19">
-        <v>16</v>
-      </c>
-      <c r="J15" s="19">
-        <v>93.19</v>
-      </c>
-      <c r="L15" s="19">
-        <v>13</v>
-      </c>
-      <c r="M15" s="19">
-        <v>93.52</v>
-      </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="5:29" x14ac:dyDescent="0.25">
-      <c r="E16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19">
-        <v>94.13</v>
-      </c>
-      <c r="L16" s="19">
-        <v>16</v>
-      </c>
-      <c r="M16" s="19">
-        <v>92.9</v>
-      </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="19">
-        <v>15</v>
-      </c>
-      <c r="J17" s="19">
-        <v>94.2</v>
-      </c>
-      <c r="L17" s="19">
-        <v>2</v>
-      </c>
-      <c r="M17" s="19">
-        <v>93.68</v>
-      </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19">
-        <v>14</v>
-      </c>
-      <c r="J18" s="19">
-        <v>94.74</v>
-      </c>
-      <c r="L18" s="19">
-        <v>8</v>
-      </c>
-      <c r="M18" s="19">
-        <v>93.92</v>
-      </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I19" s="19">
-        <v>3</v>
-      </c>
-      <c r="J19" s="19">
-        <v>94.46</v>
-      </c>
-      <c r="L19" s="19">
-        <v>11</v>
-      </c>
-      <c r="M19" s="19">
-        <v>93.61</v>
-      </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="19">
-        <v>11</v>
-      </c>
-      <c r="J20" s="19">
-        <v>94.01</v>
-      </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-      <c r="I22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="L2:M3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>